--- a/Testing/data/optimize/use_normals/optimize.xlsx
+++ b/Testing/data/optimize/use_normals/optimize.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
   <si>
     <t>name</t>
   </si>
@@ -32,7 +32,7 @@
     <t>shape_1</t>
   </si>
   <si>
-    <t>../shared/spheres_50/sphere10_DT.nrrd</t>
+    <t>../shared/spheres_50/sphere10_DT_50.nrrd</t>
   </si>
   <si>
     <t>groomed_1</t>
@@ -41,13 +41,13 @@
     <t>local_particles_1</t>
   </si>
   <si>
-    <t>optimize_particles/sphere10_DT_local.particles</t>
+    <t>optimize_particles/sphere10_DT_50_local.particles</t>
   </si>
   <si>
     <t>world_particles_1</t>
   </si>
   <si>
-    <t>optimize_particles/sphere10_DT_world.particles</t>
+    <t>optimize_particles/sphere10_DT_50_world.particles</t>
   </si>
   <si>
     <t>alignment_1</t>
@@ -59,31 +59,31 @@
     <t>1.000000 0.000000 0.000000 0.000000 0.000000 1.000000 0.000000 0.000000 0.000000 0.000000 1.000000 0.000000 0.000000 0.000000 0.000000 1.000000</t>
   </si>
   <si>
-    <t>../shared/spheres_50/sphere20_DT.nrrd</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere20_DT_local.particles</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere20_DT_world.particles</t>
-  </si>
-  <si>
-    <t>../shared/spheres_50/sphere30_DT.nrrd</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere30_DT_local.particles</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere30_DT_world.particles</t>
-  </si>
-  <si>
-    <t>../shared/spheres_50/sphere40_DT.nrrd</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere40_DT_local.particles</t>
-  </si>
-  <si>
-    <t>optimize_particles/sphere40_DT_world.particles</t>
+    <t>../shared/spheres_50/sphere20_DT_50.nrrd</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere20_DT_50_local.particles</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere20_DT_50_world.particles</t>
+  </si>
+  <si>
+    <t>../shared/spheres_50/sphere30_DT_50.nrrd</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere30_DT_50_local.particles</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere30_DT_50_world.particles</t>
+  </si>
+  <si>
+    <t>../shared/spheres_50/sphere40_DT_50.nrrd</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere40_DT_50_local.particles</t>
+  </si>
+  <si>
+    <t>optimize_particles/sphere40_DT_50_world.particles</t>
   </si>
   <si>
     <t>key</t>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>reflect_choice</t>
-  </si>
-  <si>
-    <t>sphere10_DT.nrrd</t>
   </si>
   <si>
     <t>reflect_column</t>
@@ -384,10 +381,10 @@
     <t>zoom_state</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>reconstruction_clusters</t>
@@ -784,13 +781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,8 +809,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -835,8 +835,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -858,8 +861,11 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -881,8 +887,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -903,6 +912,9 @@
       </c>
       <c r="G5" t="s">
         <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1139,20 +1151,20 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -1160,7 +1172,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -1168,23 +1180,23 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -1192,7 +1204,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -1200,10 +1212,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1225,23 +1237,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
@@ -1249,15 +1261,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -1265,31 +1277,31 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1297,55 +1309,55 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -1353,15 +1365,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1369,7 +1381,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -1377,31 +1389,31 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
         <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -1409,7 +1421,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1417,26 +1429,26 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1458,42 +1470,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1530,7 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1540,26 +1552,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1581,55 +1593,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1637,15 +1649,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1653,34 +1665,34 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
         <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1694,19 +1706,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
